--- a/размеры.xlsx
+++ b/размеры.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\Downloads\gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +501,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,11 +670,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -992,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1070,7 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>5080998</v>
       </c>
       <c r="N4" s="1"/>
@@ -1071,6 +1080,18 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>22.7</v>
+      </c>
+      <c r="E5">
+        <v>3.9929999999999999</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="AA5" s="2"/>
     </row>
@@ -1154,11 +1175,23 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B10">
+        <v>38.4</v>
+      </c>
+      <c r="C10">
+        <v>42.4</v>
+      </c>
+      <c r="D10">
+        <v>21.5</v>
+      </c>
+      <c r="E10">
+        <v>4.01</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>5080737</v>
       </c>
       <c r="N11" s="1"/>
@@ -1168,11 +1201,23 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>5.7160000000000002</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>5080972</v>
       </c>
       <c r="N13" s="1"/>
@@ -1182,6 +1227,18 @@
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>79.5</v>
+      </c>
+      <c r="D14">
+        <v>28.5</v>
+      </c>
+      <c r="E14">
+        <v>6.5510000000000002</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="AA14" s="2"/>
     </row>
@@ -1189,6 +1246,18 @@
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>22.7</v>
+      </c>
+      <c r="E15">
+        <v>3.524</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="AA15" s="2"/>
     </row>
@@ -1196,6 +1265,18 @@
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>27.7</v>
+      </c>
+      <c r="E16">
+        <v>4.6130000000000004</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="AA16" s="2"/>
     </row>
@@ -1203,6 +1284,18 @@
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B17">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>80.7</v>
+      </c>
+      <c r="D17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E17">
+        <v>4.2290000000000001</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="AA17" s="2"/>
     </row>
@@ -1210,6 +1303,18 @@
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B18">
+        <v>24.4</v>
+      </c>
+      <c r="C18">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D18">
+        <v>23.8</v>
+      </c>
+      <c r="E18">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="AA18" s="2"/>
     </row>
@@ -1217,6 +1322,18 @@
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>79.8</v>
+      </c>
+      <c r="D19">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E19">
+        <v>5.5759999999999996</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="AA19" s="2"/>
     </row>
@@ -1224,6 +1341,18 @@
       <c r="A20" s="3">
         <v>5083814</v>
       </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>43.5</v>
+      </c>
+      <c r="D20">
+        <v>21.5</v>
+      </c>
+      <c r="E20">
+        <v>3.6629999999999998</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="AA20" s="2"/>
     </row>
@@ -1231,6 +1360,18 @@
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B21">
+        <v>38.4</v>
+      </c>
+      <c r="C21">
+        <v>42.4</v>
+      </c>
+      <c r="D21">
+        <v>21.5</v>
+      </c>
+      <c r="E21">
+        <v>4.88</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="AA21" s="2"/>
     </row>
@@ -1238,6 +1379,18 @@
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B22">
+        <v>38.4</v>
+      </c>
+      <c r="C22">
+        <v>42.4</v>
+      </c>
+      <c r="D22">
+        <v>21.5</v>
+      </c>
+      <c r="E22">
+        <v>4.01</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="AA22" s="2"/>
     </row>
@@ -1245,6 +1398,18 @@
       <c r="A23" s="3">
         <v>5083742</v>
       </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>57.5</v>
+      </c>
+      <c r="D23">
+        <v>20.5</v>
+      </c>
+      <c r="E23">
+        <v>4.2279999999999998</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="AA23" s="2"/>
     </row>
@@ -1252,6 +1417,18 @@
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>58.5</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>7.51</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="AA24" s="2"/>
     </row>
@@ -1259,6 +1436,18 @@
       <c r="A25" s="3">
         <v>5083739</v>
       </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>57.5</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>5.8630000000000004</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="AA25" s="2"/>
     </row>
@@ -1266,6 +1455,18 @@
       <c r="A26" s="3">
         <v>5067596</v>
       </c>
+      <c r="B26">
+        <v>39.9</v>
+      </c>
+      <c r="C26">
+        <v>79.8</v>
+      </c>
+      <c r="D26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E26">
+        <v>5.5759999999999996</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="AA26" s="2"/>
     </row>
@@ -1273,6 +1474,18 @@
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B27">
+        <v>40.5</v>
+      </c>
+      <c r="C27">
+        <v>53.5</v>
+      </c>
+      <c r="D27">
+        <v>22.5</v>
+      </c>
+      <c r="E27">
+        <v>6.3</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="AA27" s="2"/>
     </row>
@@ -1280,6 +1493,18 @@
       <c r="A28" s="3">
         <v>5078436</v>
       </c>
+      <c r="B28">
+        <v>29.8</v>
+      </c>
+      <c r="C28">
+        <v>49.8</v>
+      </c>
+      <c r="D28">
+        <v>22.5</v>
+      </c>
+      <c r="E28">
+        <v>2.1120000000000001</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="AA28" s="2"/>
     </row>
@@ -1287,6 +1512,18 @@
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B29">
+        <v>40.5</v>
+      </c>
+      <c r="C29">
+        <v>53.5</v>
+      </c>
+      <c r="D29">
+        <v>22.5</v>
+      </c>
+      <c r="E29">
+        <v>6.59</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="AA29" s="2"/>
     </row>
@@ -1294,6 +1531,18 @@
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B30">
+        <v>40.5</v>
+      </c>
+      <c r="C30">
+        <v>53.5</v>
+      </c>
+      <c r="D30">
+        <v>22.5</v>
+      </c>
+      <c r="E30">
+        <v>8.33</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="AA30" s="2"/>
     </row>
@@ -1317,7 +1566,7 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>5084122</v>
       </c>
       <c r="N32" s="1"/>
@@ -1327,6 +1576,18 @@
       <c r="A33" s="3">
         <v>5036904</v>
       </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E33">
+        <v>6.82</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="AA33" s="2"/>
     </row>
@@ -1334,6 +1595,18 @@
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>5.2</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="AA34" s="2"/>
     </row>
@@ -1357,7 +1630,7 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>5081506</v>
       </c>
       <c r="N36" s="1"/>
@@ -1367,6 +1640,18 @@
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>21.2</v>
+      </c>
+      <c r="E37">
+        <v>6.4870000000000001</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="AA37" s="2"/>
     </row>
@@ -1374,6 +1659,18 @@
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B38">
+        <v>37.5</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>25.1</v>
+      </c>
+      <c r="E38">
+        <v>4.74</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="AA38" s="2"/>
     </row>
@@ -1381,6 +1678,18 @@
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>6.85</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="AA39" s="2"/>
     </row>
@@ -1388,6 +1697,18 @@
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>58.5</v>
+      </c>
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>7.9</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="AA40" s="2"/>
     </row>
@@ -1395,6 +1716,18 @@
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>20.5</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="AA41" s="2"/>
     </row>
@@ -1421,6 +1754,18 @@
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B43">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="AA43" s="2"/>
     </row>
@@ -1428,6 +1773,18 @@
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B44">
+        <v>40.5</v>
+      </c>
+      <c r="C44">
+        <v>53.5</v>
+      </c>
+      <c r="D44">
+        <v>22.5</v>
+      </c>
+      <c r="E44">
+        <v>7.96</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="AA44" s="2"/>
     </row>
@@ -1435,6 +1792,18 @@
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>7.11</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="AA45" s="2"/>
     </row>
@@ -1442,6 +1811,18 @@
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B46">
+        <v>40.5</v>
+      </c>
+      <c r="C46">
+        <v>53.5</v>
+      </c>
+      <c r="D46">
+        <v>16.5</v>
+      </c>
+      <c r="E46">
+        <v>4.87</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="AA46" s="2"/>
     </row>
@@ -1449,6 +1830,18 @@
       <c r="A47" s="3">
         <v>5080734</v>
       </c>
+      <c r="B47">
+        <v>23.5</v>
+      </c>
+      <c r="C47">
+        <v>45.8</v>
+      </c>
+      <c r="D47">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E47">
+        <v>2.7130000000000001</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="AA47" s="2"/>
     </row>
@@ -1456,6 +1849,18 @@
       <c r="A48" s="3">
         <v>5083743</v>
       </c>
+      <c r="B48">
+        <v>37.5</v>
+      </c>
+      <c r="C48">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D48">
+        <v>20.5</v>
+      </c>
+      <c r="E48">
+        <v>3.4049999999999998</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="AA48" s="2"/>
     </row>
@@ -1463,6 +1868,18 @@
       <c r="A49" s="3">
         <v>5083740</v>
       </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>57.5</v>
+      </c>
+      <c r="D49">
+        <v>20.5</v>
+      </c>
+      <c r="E49">
+        <v>5.048</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="AA49" s="2"/>
     </row>
@@ -1470,6 +1887,18 @@
       <c r="A50" s="3">
         <v>5083775</v>
       </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>45.9</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>4.1130000000000004</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="AA50" s="2"/>
     </row>
@@ -1477,6 +1906,18 @@
       <c r="A51" s="3">
         <v>5070609</v>
       </c>
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>22.7</v>
+      </c>
+      <c r="E51">
+        <v>3.524</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="AA51" s="2"/>
     </row>
@@ -1484,6 +1925,18 @@
       <c r="A52" s="3">
         <v>5099044</v>
       </c>
+      <c r="B52">
+        <v>29.8</v>
+      </c>
+      <c r="C52">
+        <v>49.8</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>2.726</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="AA52" s="2"/>
     </row>
@@ -1491,6 +1944,18 @@
       <c r="A53" s="3">
         <v>5056378</v>
       </c>
+      <c r="B53">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C53">
+        <v>81.8</v>
+      </c>
+      <c r="D53">
+        <v>18.5</v>
+      </c>
+      <c r="E53">
+        <v>3.6339999999999999</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="AA53" s="2"/>
     </row>
@@ -1498,6 +1963,18 @@
       <c r="A54" s="3">
         <v>5080971</v>
       </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>79.5</v>
+      </c>
+      <c r="D54">
+        <v>28.5</v>
+      </c>
+      <c r="E54">
+        <v>6.5510000000000002</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="AA54" s="2"/>
     </row>
@@ -1505,6 +1982,18 @@
       <c r="A55" s="3">
         <v>5083735</v>
       </c>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>57.5</v>
+      </c>
+      <c r="D55">
+        <v>10.8</v>
+      </c>
+      <c r="E55">
+        <v>3.319</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="AA55" s="2"/>
     </row>
@@ -1512,6 +2001,18 @@
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B56">
+        <v>18.5</v>
+      </c>
+      <c r="C56">
+        <v>27.5</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>6.6</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="AA56" s="2"/>
     </row>
@@ -1526,6 +2027,18 @@
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>25.8</v>
+      </c>
+      <c r="E58">
+        <v>6.5</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="AA58" s="2"/>
     </row>
@@ -1540,6 +2053,18 @@
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>25.8</v>
+      </c>
+      <c r="E60">
+        <v>6.5</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="AA60" s="2"/>
     </row>
@@ -1554,6 +2079,18 @@
       <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B62">
+        <v>19.5</v>
+      </c>
+      <c r="C62">
+        <v>38</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>3.85</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="AA62" s="2"/>
     </row>
@@ -1568,6 +2105,18 @@
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>72</v>
+      </c>
+      <c r="D64">
+        <v>22.7</v>
+      </c>
+      <c r="E64">
+        <v>3.9929999999999999</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="AA64" s="2"/>
     </row>
@@ -1603,6 +2152,18 @@
       <c r="A69" s="3">
         <v>5083738</v>
       </c>
+      <c r="B69">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>57.5</v>
+      </c>
+      <c r="D69">
+        <v>16.8</v>
+      </c>
+      <c r="E69">
+        <v>4.1459999999999999</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="AA69" s="2"/>
     </row>
@@ -1610,6 +2171,18 @@
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>58.5</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>4.88</v>
+      </c>
       <c r="N70" s="1"/>
       <c r="AA70" s="2"/>
     </row>
@@ -1617,6 +2190,18 @@
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B71">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>81</v>
+      </c>
+      <c r="D71">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>6.31</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="AA71" s="2"/>
     </row>
@@ -1624,6 +2209,18 @@
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B72">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>55</v>
+      </c>
+      <c r="D72">
+        <v>20.5</v>
+      </c>
+      <c r="E72">
+        <v>6.12</v>
+      </c>
       <c r="N72" s="1"/>
       <c r="AA72" s="2"/>
     </row>
@@ -1631,8 +2228,37 @@
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B73">
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>6.73</v>
+      </c>
       <c r="N73" s="1"/>
       <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>5083816</v>
+      </c>
+      <c r="B74">
+        <v>11.3</v>
+      </c>
+      <c r="C74">
+        <v>41</v>
+      </c>
+      <c r="D74">
+        <v>22.7</v>
+      </c>
+      <c r="E74">
+        <v>0.47599999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/размеры.xlsx
+++ b/размеры.xlsx
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,13 +1831,13 @@
         <v>5080734</v>
       </c>
       <c r="B47">
-        <v>23.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C47">
         <v>45.8</v>
       </c>
       <c r="D47">
-        <v>40.799999999999997</v>
+        <v>23.5</v>
       </c>
       <c r="E47">
         <v>2.7130000000000001</v>

--- a/размеры.xlsx
+++ b/размеры.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>5080998-7</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>С251</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>ом</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1037,9 @@
       <c r="E1">
         <v>4.28</v>
       </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="AA1" s="2"/>
     </row>
@@ -1047,6 +1059,9 @@
       <c r="E2">
         <v>4.87</v>
       </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="AA2" s="2"/>
     </row>
@@ -1061,10 +1076,13 @@
         <v>54</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>6.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
       </c>
       <c r="N3" s="1"/>
       <c r="AA3" s="2"/>
@@ -1081,16 +1099,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D5">
-        <v>22.7</v>
+        <v>11.8</v>
       </c>
       <c r="E5">
         <v>3.9929999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
       </c>
       <c r="N5" s="1"/>
       <c r="AA5" s="2"/>
@@ -1111,6 +1132,9 @@
       <c r="E6">
         <v>5.25</v>
       </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="AA6" s="2"/>
     </row>
@@ -1130,6 +1154,9 @@
       <c r="E7">
         <v>7.52</v>
       </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="AA7" s="2"/>
     </row>
@@ -1149,6 +1176,9 @@
       <c r="E8">
         <v>8.0399999999999991</v>
       </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="AA8" s="2"/>
     </row>
@@ -1168,6 +1198,9 @@
       <c r="E9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="AA9" s="2"/>
     </row>
@@ -1187,6 +1220,9 @@
       <c r="E10">
         <v>4.01</v>
       </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="AA10" s="2"/>
     </row>
@@ -1213,6 +1249,9 @@
       <c r="E12">
         <v>5.7160000000000002</v>
       </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="AA12" s="2"/>
     </row>
@@ -1239,6 +1278,9 @@
       <c r="E14">
         <v>6.5510000000000002</v>
       </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="AA14" s="2"/>
     </row>
@@ -1258,6 +1300,9 @@
       <c r="E15">
         <v>3.524</v>
       </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="AA15" s="2"/>
     </row>
@@ -1277,6 +1322,9 @@
       <c r="E16">
         <v>4.6130000000000004</v>
       </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="AA16" s="2"/>
     </row>
@@ -1296,6 +1344,9 @@
       <c r="E17">
         <v>4.2290000000000001</v>
       </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="AA17" s="2"/>
     </row>
@@ -1315,6 +1366,9 @@
       <c r="E18">
         <v>4.4000000000000004</v>
       </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="AA18" s="2"/>
     </row>
@@ -1334,6 +1388,9 @@
       <c r="E19">
         <v>5.5759999999999996</v>
       </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="AA19" s="2"/>
     </row>
@@ -1353,6 +1410,9 @@
       <c r="E20">
         <v>3.6629999999999998</v>
       </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="AA20" s="2"/>
     </row>
@@ -1372,6 +1432,9 @@
       <c r="E21">
         <v>4.88</v>
       </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="AA21" s="2"/>
     </row>
@@ -1391,6 +1454,9 @@
       <c r="E22">
         <v>4.01</v>
       </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="AA22" s="2"/>
     </row>
@@ -1410,6 +1476,9 @@
       <c r="E23">
         <v>4.2279999999999998</v>
       </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="AA23" s="2"/>
     </row>
@@ -1421,13 +1490,16 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>7.51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
       </c>
       <c r="N24" s="1"/>
       <c r="AA24" s="2"/>
@@ -1448,24 +1520,15 @@
       <c r="E25">
         <v>5.8630000000000004</v>
       </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>5067596</v>
-      </c>
-      <c r="B26">
-        <v>39.9</v>
-      </c>
-      <c r="C26">
-        <v>79.8</v>
-      </c>
-      <c r="D26">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E26">
-        <v>5.5759999999999996</v>
       </c>
       <c r="N26" s="1"/>
       <c r="AA26" s="2"/>
@@ -1486,6 +1549,9 @@
       <c r="E27">
         <v>6.3</v>
       </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="AA27" s="2"/>
     </row>
@@ -1505,6 +1571,9 @@
       <c r="E28">
         <v>2.1120000000000001</v>
       </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="AA28" s="2"/>
     </row>
@@ -1524,6 +1593,9 @@
       <c r="E29">
         <v>6.59</v>
       </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="AA29" s="2"/>
     </row>
@@ -1543,6 +1615,9 @@
       <c r="E30">
         <v>8.33</v>
       </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="AA30" s="2"/>
     </row>
@@ -1562,6 +1637,9 @@
       <c r="E31">
         <v>4.43</v>
       </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="AA31" s="2"/>
     </row>
@@ -1588,6 +1666,9 @@
       <c r="E33">
         <v>6.82</v>
       </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="AA33" s="2"/>
     </row>
@@ -1607,6 +1688,9 @@
       <c r="E34">
         <v>5.2</v>
       </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="AA34" s="2"/>
     </row>
@@ -1626,6 +1710,9 @@
       <c r="E35">
         <v>3.96</v>
       </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="AA35" s="2"/>
     </row>
@@ -1644,13 +1731,16 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>6.4870000000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
       </c>
       <c r="N37" s="1"/>
       <c r="AA37" s="2"/>
@@ -1671,6 +1761,9 @@
       <c r="E38">
         <v>4.74</v>
       </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="AA38" s="2"/>
     </row>
@@ -1690,6 +1783,9 @@
       <c r="E39">
         <v>6.85</v>
       </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="AA39" s="2"/>
     </row>
@@ -1698,16 +1794,19 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C40">
-        <v>58.5</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="E40">
         <v>7.9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
       </c>
       <c r="N40" s="1"/>
       <c r="AA40" s="2"/>
@@ -1728,6 +1827,9 @@
       <c r="E41">
         <v>7</v>
       </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="AA41" s="2"/>
     </row>
@@ -1747,6 +1849,9 @@
       <c r="E42">
         <v>6.85</v>
       </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="AA42" s="2"/>
     </row>
@@ -1766,6 +1871,9 @@
       <c r="E43">
         <v>4.7300000000000004</v>
       </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="AA43" s="2"/>
     </row>
@@ -1785,6 +1893,9 @@
       <c r="E44">
         <v>7.96</v>
       </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="AA44" s="2"/>
     </row>
@@ -1804,6 +1915,9 @@
       <c r="E45">
         <v>7.11</v>
       </c>
+      <c r="F45" t="s">
+        <v>48</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="AA45" s="2"/>
     </row>
@@ -1823,6 +1937,9 @@
       <c r="E46">
         <v>4.87</v>
       </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="AA46" s="2"/>
     </row>
@@ -1842,6 +1959,9 @@
       <c r="E47">
         <v>2.7130000000000001</v>
       </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="AA47" s="2"/>
     </row>
@@ -1850,16 +1970,19 @@
         <v>5083743</v>
       </c>
       <c r="B48">
-        <v>37.5</v>
+        <v>38.9</v>
       </c>
       <c r="C48">
-        <v>34.200000000000003</v>
+        <v>41.6</v>
       </c>
       <c r="D48">
-        <v>20.5</v>
+        <v>22.1</v>
       </c>
       <c r="E48">
         <v>3.4049999999999998</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
       </c>
       <c r="N48" s="1"/>
       <c r="AA48" s="2"/>
@@ -1869,16 +1992,19 @@
         <v>5083740</v>
       </c>
       <c r="B49">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49">
-        <v>57.5</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>5.048</v>
+      </c>
+      <c r="F49" t="s">
+        <v>48</v>
       </c>
       <c r="N49" s="1"/>
       <c r="AA49" s="2"/>
@@ -1899,6 +2025,9 @@
       <c r="E50">
         <v>4.1130000000000004</v>
       </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="AA50" s="2"/>
     </row>
@@ -1918,6 +2047,9 @@
       <c r="E51">
         <v>3.524</v>
       </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="AA51" s="2"/>
     </row>
@@ -1937,6 +2069,9 @@
       <c r="E52">
         <v>2.726</v>
       </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="AA52" s="2"/>
     </row>
@@ -1956,6 +2091,9 @@
       <c r="E53">
         <v>3.6339999999999999</v>
       </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="AA53" s="2"/>
     </row>
@@ -1975,6 +2113,9 @@
       <c r="E54">
         <v>6.5510000000000002</v>
       </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="AA54" s="2"/>
     </row>
@@ -1994,6 +2135,9 @@
       <c r="E55">
         <v>3.319</v>
       </c>
+      <c r="F55" t="s">
+        <v>48</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="AA55" s="2"/>
     </row>
@@ -2013,6 +2157,9 @@
       <c r="E56">
         <v>6.6</v>
       </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="AA56" s="2"/>
     </row>
@@ -2039,6 +2186,9 @@
       <c r="E58">
         <v>6.5</v>
       </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="AA58" s="2"/>
     </row>
@@ -2065,6 +2215,9 @@
       <c r="E60">
         <v>6.5</v>
       </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="AA60" s="2"/>
     </row>
@@ -2091,6 +2244,9 @@
       <c r="E62">
         <v>3.85</v>
       </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="AA62" s="2"/>
     </row>
@@ -2112,10 +2268,13 @@
         <v>72</v>
       </c>
       <c r="D64">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="E64">
         <v>3.9929999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
       </c>
       <c r="N64" s="1"/>
       <c r="AA64" s="2"/>
@@ -2164,6 +2323,9 @@
       <c r="E69">
         <v>4.1459999999999999</v>
       </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="AA69" s="2"/>
     </row>
@@ -2183,6 +2345,9 @@
       <c r="E70">
         <v>4.88</v>
       </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
       <c r="N70" s="1"/>
       <c r="AA70" s="2"/>
     </row>
@@ -2202,6 +2367,9 @@
       <c r="E71">
         <v>6.31</v>
       </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="AA71" s="2"/>
     </row>
@@ -2221,6 +2389,9 @@
       <c r="E72">
         <v>6.12</v>
       </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
       <c r="N72" s="1"/>
       <c r="AA72" s="2"/>
     </row>
@@ -2240,6 +2411,9 @@
       <c r="E73">
         <v>6.73</v>
       </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
       <c r="N73" s="1"/>
       <c r="AA73" s="2"/>
     </row>
@@ -2258,6 +2432,9 @@
       </c>
       <c r="E74">
         <v>0.47599999999999998</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
